--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -3636,31 +3636,31 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp103.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp104.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp105.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp106.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp107.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp108.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp109.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3668,43 +3668,43 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp110.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp111.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp112.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp113.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp114.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp115.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp116.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp117.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp118.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp119.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3712,43 +3712,43 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp120.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp121.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp122.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp123.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp124.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp125.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp126.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp127.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp128.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp129.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3756,43 +3756,43 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp130.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp131.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp132.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp133.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp134.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp135.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp136.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp137.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp138.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp139.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3800,43 +3800,43 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp140.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp141.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp142.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp143.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp144.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp145.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp146.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp147.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp148.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp149.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3844,43 +3844,43 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp150.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp151.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp152.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp153.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp154.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp155.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp156.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp157.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp158.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp159.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3888,43 +3888,43 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp160.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp161.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp162.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp163.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp164.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp165.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp166.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp167.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp168.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp169.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4108,7 +4108,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp49.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4116,11 +4116,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp50.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp51.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp52.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4172,7 +4172,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp63.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp64.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4316,7 +4316,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp96.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp97.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16057,8 +16057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16156,7 +16156,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
         <v>18</v>
       </c>
@@ -16186,32 +16186,32 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
         <v>29</v>
       </c>
@@ -16266,7 +16266,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
         <v>40</v>
       </c>
@@ -16276,7 +16276,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
         <v>42</v>
       </c>
@@ -16286,12 +16286,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
         <v>45</v>
       </c>
@@ -16371,7 +16371,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B62" s="4" t="s">
         <v>58</v>
       </c>
@@ -16416,17 +16416,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B71" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B72" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="2:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B73" s="4" t="s">
         <v>69</v>
       </c>
@@ -16521,7 +16521,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="92" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B92" s="4" t="s">
         <v>87</v>
       </c>
@@ -16581,7 +16581,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="104" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B104" s="3" t="s">
         <v>96</v>
       </c>
@@ -16646,12 +16646,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="117" spans="2:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:2" ht="62.4" x14ac:dyDescent="0.3">
       <c r="B117" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="118" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B118" s="4" t="s">
         <v>104</v>
       </c>
@@ -16786,12 +16786,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="145" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B145" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="146" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B146" s="4" t="s">
         <v>122</v>
       </c>
@@ -16866,12 +16866,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="161" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B161" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="162" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B162" s="3" t="s">
         <v>135</v>
       </c>
@@ -16921,17 +16921,17 @@
         <v>144</v>
       </c>
     </row>
-    <row r="172" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B172" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="173" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B173" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="174" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B174" s="3" t="s">
         <v>147</v>
       </c>

--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stanley\Desktop\FullSail\PG1\github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stanley\Desktop\FullSail\PG1\Pac-Man\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3948,23 +3948,23 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp174.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp175.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp176.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp177.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp178.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp179.xml><?xml version="1.0" encoding="utf-8"?>
